--- a/biology/Biochimie/Dihydrolipoyl_déshydrogénase/Dihydrolipoyl_déshydrogénase.xlsx
+++ b/biology/Biochimie/Dihydrolipoyl_déshydrogénase/Dihydrolipoyl_déshydrogénase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dihydrolipoyl_d%C3%A9shydrog%C3%A9nase</t>
+          <t>Dihydrolipoyl_déshydrogénase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La dihydrolipoyl déshydrogénase (DLD), également appelée dihydrolipoamide déshydrogénase, est la dernière des trois enzymes du complexe pyruvate déshydrogénase (PDC), du complexe alpha-cétoglutarate déshydrogénase et du complexe 3-méthyl-2-oxobutanoate déshydrogénase, constitués chacun d'une décarboxylase, d'une transacétylase et d'une réductase.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dihydrolipoyl_d%C3%A9shydrog%C3%A9nase</t>
+          <t>Dihydrolipoyl_déshydrogénase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Le complexe pyruvate déshydrogénase</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le PDC catalyse la décarboxylation oxydative du pyruvate en acétyl-CoA, réaction qui réalise notamment la liaison entre la glycolyse et le cycle de Krebs ; les autres enzymes du complexe sont la pyruvate déshydrogénase (E1) et la dihydrolipoamide S-acétyltransférase (E2). Cette réaction s'écrit globalement :
 Le mécanisme en est assez complexe, et peut être résumé par le schéma simplifié ci-dessous :
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dihydrolipoyl_d%C3%A9shydrog%C3%A9nase</t>
+          <t>Dihydrolipoyl_déshydrogénase</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>La dihydrolipoyl déshydrogénase</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La DLD est une flavoprotéine qui, outre sa participation aux trois complexes enzymatiques que sont le complexe pyruvate déshydrogénase, le complexe alpha-cétoglutarate déshydrogénase et le complexe 3-méthyl-2-oxobutanoate déshydrogénase, catalyse plus simplement la réduction du lipoamide en dihydrolipoamide.
 Son confacteur est la flavine adénine dinucléotide (FAD), qui transfère au nicotinamide adénine dinucléotide (NAD+) les deux atomes d'hydrogène libérés par le dihydrolipoamide lors de son oxydation en lipoamide.
